--- a/E2TGST/Resources/SalesEntriesA.xlsx
+++ b/E2TGST/Resources/SalesEntriesA.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Dineshkumar\Projects\Excel-to-Tally-for-GST\E2TGST\Resources\"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Invoice Date</t>
   </si>
@@ -40,15 +40,6 @@
   </si>
   <si>
     <t>Taxable Value</t>
-  </si>
-  <si>
-    <t>IGST</t>
-  </si>
-  <si>
-    <t>SGST</t>
-  </si>
-  <si>
-    <t>CGST</t>
   </si>
   <si>
     <t>CESS</t>
@@ -98,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -137,48 +128,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -194,48 +148,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,10 +483,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="SalesEntries"/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,167 +497,66 @@
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" customWidth="1"/>
+    <col min="9" max="11" width="0" style="1" hidden="1"/>
     <col min="12" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="12"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8e8bYjnjHV2zIQyJZsjcHSZ9pNOdmvIMRVRCkWzQ8p1rwl0xvv0fKMSkqPOCzM+6PtQrXngFKSaZlACII2WWgg==" saltValue="seXeOZ/QqhlvKWjzGF9nwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <sheetProtection formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -767,7 +578,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">

--- a/E2TGST/Resources/SalesEntriesA.xlsx
+++ b/E2TGST/Resources/SalesEntriesA.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Invoice Date</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>GSTIN/Party Ledger Name</t>
+  </si>
+  <si>
+    <t>Custom Sales Ledger Name</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -168,6 +171,10 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +490,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="SalesEntries"/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,12 +505,13 @@
     <col min="5" max="5" width="9.140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="11" width="0" style="1" hidden="1"/>
-    <col min="12" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="8" max="8" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -528,16 +536,35 @@
       <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -545,8 +572,9 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -554,6 +582,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
